--- a/facility opened vial wastage tool v1 -modified.xlsx
+++ b/facility opened vial wastage tool v1 -modified.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4296,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
